--- a/data/manualDetection/cultivation/originalFiles/cilia_numbers_clemens_kai.xlsx
+++ b/data/manualDetection/cultivation/originalFiles/cilia_numbers_clemens_kai.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\Documents\git\gitHub\SI_lengthOfPrimaryCilia\data\manualDetection\cultivation\originalFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4CBE48-CFFD-49DA-91AB-A9A0F3CAB32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65606D13-A95D-4756-8798-C29ED310DE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{D4681C3C-432B-4006-A065-1F556E10F683}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D4681C3C-432B-4006-A065-1F556E10F683}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -54,25 +54,25 @@
     <t>fileName</t>
   </si>
   <si>
-    <t>190815_EV38_2_Collagen_ITSwithAsc+Dexa_63x_zstack_10.czi</t>
-  </si>
-  <si>
-    <t>190815_EV38_2_Collagen_ITSwithAsc+Dexa_63x_zstack_11.czi</t>
-  </si>
-  <si>
-    <t>190815_EV38_2_Collagen_ITSwithAsc+Dexa_63x_zstack_12.czi</t>
-  </si>
-  <si>
     <t>190815_EV38_2_Collagen_ITSwithAsc+Dexa_63x_zstack_6.czi</t>
   </si>
   <si>
     <t>190815_EV38_2_Collagen_ITSwithAsc+Dexa_63x_zstack_7.czi</t>
   </si>
   <si>
-    <t>190815_EV38_2_Collagen_ITSwithAsc+Dexa_63x_zstack_8.czi</t>
+    <t>190815_EV38_2_Collagen_ITSwithAsc+Dexa_63x_zstack_1.czi</t>
   </si>
   <si>
-    <t>190815_EV38_2_Collagen_ITSwithAsc+Dexa_63x_zstack_9.czi</t>
+    <t>190815_EV38_2_Collagen_ITSwithAsc+Dexa_63x_zstack_2.czi</t>
+  </si>
+  <si>
+    <t>190815_EV38_2_Collagen_ITSwithAsc+Dexa_63x_zstack_3.czi</t>
+  </si>
+  <si>
+    <t>190815_EV38_2_Collagen_ITSwithAsc+Dexa_63x_zstack_4.czi</t>
+  </si>
+  <si>
+    <t>190815_EV38_2_Collagen_ITSwithAsc+Dexa_63x_zstack_5.czi</t>
   </si>
 </sst>
 </file>
@@ -108,12 +108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -429,20 +424,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAF1B93-8D5A-4DDF-9B98-D3A4298A3DAA}">
-  <dimension ref="A1:G184"/>
+  <dimension ref="A1:D184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A153" sqref="A153"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.453125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="57.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" t="s">
@@ -455,9 +450,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>9</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -466,9 +461,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>9</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -477,9 +472,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>9</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -488,9 +483,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>9</v>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -499,9 +494,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>9</v>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -510,9 +505,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>9</v>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -521,9 +516,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>9</v>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -532,9 +527,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>9</v>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -543,9 +538,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>9</v>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -554,9 +549,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>9</v>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -565,9 +560,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>9</v>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -576,9 +571,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>9</v>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -587,9 +582,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>9</v>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -598,9 +593,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>9</v>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -609,9 +604,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>9</v>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -620,9 +615,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>9</v>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -631,9 +626,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>9</v>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -642,9 +637,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>9</v>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -653,9 +648,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>9</v>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -664,9 +659,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
-        <v>9</v>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>8</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -675,9 +670,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>9</v>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -686,9 +681,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>9</v>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>8</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -697,9 +692,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>9</v>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -708,9 +703,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>9</v>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -719,9 +714,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
-        <v>9</v>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>8</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -730,9 +725,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
-        <v>9</v>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -741,9 +736,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
-        <v>9</v>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>8</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -752,9 +747,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
-        <v>9</v>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>8</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -763,9 +758,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
-        <v>9</v>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>8</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -774,364 +769,364 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="5">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31">
         <v>30</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="5" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32">
         <v>31</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="1">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
         <v>1</v>
       </c>
       <c r="C33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="1">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
         <v>2</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="1">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
         <v>3</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="1">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36">
         <v>4</v>
       </c>
       <c r="C36">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="1">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37">
         <v>5</v>
       </c>
       <c r="C37">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="1">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38">
         <v>6</v>
       </c>
       <c r="C38">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="1">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39">
         <v>7</v>
       </c>
       <c r="C39">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="1">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40">
         <v>8</v>
       </c>
       <c r="C40">
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="1">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41">
         <v>9</v>
       </c>
       <c r="C41">
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="1">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42">
         <v>10</v>
       </c>
       <c r="C42">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="1">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43">
         <v>11</v>
       </c>
       <c r="C43">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="1">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44">
         <v>12</v>
       </c>
       <c r="C44">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="1">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45">
         <v>13</v>
       </c>
       <c r="C45">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="1">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46">
         <v>14</v>
       </c>
       <c r="C46">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="1">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47">
         <v>15</v>
       </c>
       <c r="C47">
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="1">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48">
         <v>16</v>
       </c>
       <c r="C48">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="1">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49">
         <v>17</v>
       </c>
       <c r="C49">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="1">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50">
         <v>18</v>
       </c>
       <c r="C50">
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="1">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51">
         <v>19</v>
       </c>
       <c r="C51">
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="1">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52">
         <v>20</v>
       </c>
       <c r="C52">
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="1">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53">
         <v>21</v>
       </c>
       <c r="C53">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54" s="1">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54">
         <v>22</v>
       </c>
       <c r="C54">
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B55" s="1">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55">
         <v>23</v>
       </c>
       <c r="C55">
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" s="1">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56">
         <v>24</v>
       </c>
       <c r="C56">
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="1">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57">
         <v>25</v>
       </c>
       <c r="C57">
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="1">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58">
         <v>26</v>
       </c>
       <c r="C58">
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B59" s="1">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59">
         <v>27</v>
       </c>
       <c r="C59">
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B60" s="5">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60">
         <v>28</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B61" s="5">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61">
         <v>29</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61">
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B62" s="5">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62">
         <v>30</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62">
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="5" t="s">
-        <v>11</v>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>10</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -1140,9 +1135,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="5" t="s">
-        <v>11</v>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>10</v>
       </c>
       <c r="B64">
         <v>2</v>
@@ -1151,9 +1146,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="5" t="s">
-        <v>11</v>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>10</v>
       </c>
       <c r="B65">
         <v>3</v>
@@ -1161,11 +1156,10 @@
       <c r="C65">
         <v>4</v>
       </c>
-      <c r="G65" s="5"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="5" t="s">
-        <v>11</v>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>10</v>
       </c>
       <c r="B66">
         <v>4</v>
@@ -1173,11 +1167,10 @@
       <c r="C66">
         <v>5</v>
       </c>
-      <c r="G66" s="5"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="5" t="s">
-        <v>11</v>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>10</v>
       </c>
       <c r="B67">
         <v>5</v>
@@ -1185,11 +1178,10 @@
       <c r="C67">
         <v>12</v>
       </c>
-      <c r="G67" s="5"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="5" t="s">
-        <v>11</v>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>10</v>
       </c>
       <c r="B68">
         <v>6</v>
@@ -1197,11 +1189,10 @@
       <c r="C68">
         <v>6</v>
       </c>
-      <c r="G68" s="5"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="5" t="s">
-        <v>11</v>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>10</v>
       </c>
       <c r="B69">
         <v>7</v>
@@ -1209,11 +1200,10 @@
       <c r="C69">
         <v>13</v>
       </c>
-      <c r="G69" s="5"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="5" t="s">
-        <v>11</v>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>10</v>
       </c>
       <c r="B70">
         <v>8</v>
@@ -1221,11 +1211,10 @@
       <c r="C70">
         <v>8</v>
       </c>
-      <c r="G70" s="5"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="5" t="s">
-        <v>11</v>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>10</v>
       </c>
       <c r="B71">
         <v>9</v>
@@ -1233,11 +1222,10 @@
       <c r="C71">
         <v>7</v>
       </c>
-      <c r="G71" s="5"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="5" t="s">
-        <v>11</v>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>10</v>
       </c>
       <c r="B72">
         <v>10</v>
@@ -1245,11 +1233,10 @@
       <c r="C72">
         <v>9</v>
       </c>
-      <c r="G72" s="5"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="5" t="s">
-        <v>11</v>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>10</v>
       </c>
       <c r="B73">
         <v>11</v>
@@ -1257,11 +1244,10 @@
       <c r="C73">
         <v>11</v>
       </c>
-      <c r="G73" s="5"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="5" t="s">
-        <v>11</v>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>10</v>
       </c>
       <c r="B74">
         <v>12</v>
@@ -1269,11 +1255,10 @@
       <c r="C74">
         <v>10</v>
       </c>
-      <c r="G74" s="5"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="5" t="s">
-        <v>11</v>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>10</v>
       </c>
       <c r="B75">
         <v>13</v>
@@ -1281,11 +1266,10 @@
       <c r="C75">
         <v>14</v>
       </c>
-      <c r="G75" s="5"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="5" t="s">
-        <v>11</v>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>10</v>
       </c>
       <c r="B76">
         <v>14</v>
@@ -1293,11 +1277,10 @@
       <c r="C76">
         <v>16</v>
       </c>
-      <c r="G76" s="5"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="5" t="s">
-        <v>11</v>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>10</v>
       </c>
       <c r="B77">
         <v>15</v>
@@ -1305,11 +1288,10 @@
       <c r="C77">
         <v>15</v>
       </c>
-      <c r="G77" s="5"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="5" t="s">
-        <v>11</v>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>10</v>
       </c>
       <c r="B78">
         <v>16</v>
@@ -1317,11 +1299,10 @@
       <c r="C78">
         <v>20</v>
       </c>
-      <c r="G78" s="5"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="5" t="s">
-        <v>11</v>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>10</v>
       </c>
       <c r="B79">
         <v>17</v>
@@ -1329,11 +1310,10 @@
       <c r="C79">
         <v>17</v>
       </c>
-      <c r="G79" s="5"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="5" t="s">
-        <v>11</v>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>10</v>
       </c>
       <c r="B80">
         <v>18</v>
@@ -1341,11 +1321,10 @@
       <c r="C80">
         <v>21</v>
       </c>
-      <c r="G80" s="5"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="5" t="s">
-        <v>11</v>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>10</v>
       </c>
       <c r="B81">
         <v>19</v>
@@ -1353,11 +1332,10 @@
       <c r="C81">
         <v>22</v>
       </c>
-      <c r="G81" s="5"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="5" t="s">
-        <v>11</v>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>10</v>
       </c>
       <c r="B82">
         <v>20</v>
@@ -1365,11 +1343,10 @@
       <c r="C82">
         <v>24</v>
       </c>
-      <c r="G82" s="5"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="5" t="s">
-        <v>11</v>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>10</v>
       </c>
       <c r="B83">
         <v>21</v>
@@ -1377,11 +1354,10 @@
       <c r="C83">
         <v>25</v>
       </c>
-      <c r="G83" s="5"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="5" t="s">
-        <v>11</v>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>10</v>
       </c>
       <c r="B84">
         <v>22</v>
@@ -1389,11 +1365,10 @@
       <c r="C84">
         <v>23</v>
       </c>
-      <c r="G84" s="5"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="5" t="s">
-        <v>11</v>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>10</v>
       </c>
       <c r="B85">
         <v>23</v>
@@ -1401,11 +1376,10 @@
       <c r="C85">
         <v>26</v>
       </c>
-      <c r="G85" s="5"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="5" t="s">
-        <v>11</v>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>10</v>
       </c>
       <c r="B86">
         <v>24</v>
@@ -1413,1087 +1387,1084 @@
       <c r="C86">
         <v>28</v>
       </c>
-      <c r="G86" s="5"/>
-    </row>
-    <row r="87" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B87" s="5">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87">
         <v>25</v>
       </c>
-      <c r="C87" s="5">
+      <c r="C87">
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B88" s="5">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88">
         <v>26</v>
       </c>
-      <c r="C88" s="5">
+      <c r="C88">
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B89" s="5" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89" t="s">
         <v>0</v>
       </c>
-      <c r="C89" s="5">
+      <c r="C89">
         <v>1</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D89" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B90" s="5" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" t="s">
         <v>0</v>
       </c>
-      <c r="C90" s="5">
+      <c r="C90">
         <v>19</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D90" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B91" s="5" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91" t="s">
         <v>0</v>
       </c>
-      <c r="C91" s="5">
+      <c r="C91">
         <v>27</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D91" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B92" s="2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92">
         <v>1</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
-      <c r="G92" s="5"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B93" s="2">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93">
         <v>2</v>
       </c>
       <c r="C93">
         <v>2</v>
       </c>
-      <c r="G93" s="5"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B94" s="2">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94">
         <v>3</v>
       </c>
       <c r="C94">
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B95" s="2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95">
         <v>4</v>
       </c>
       <c r="C95">
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B96" s="2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96">
         <v>5</v>
       </c>
       <c r="C96">
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B97" s="2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97">
         <v>6</v>
       </c>
       <c r="C97">
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B98" s="2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98">
         <v>7</v>
       </c>
       <c r="C98">
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B99" s="2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99">
         <v>8</v>
       </c>
       <c r="C99">
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B100" s="2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100">
         <v>9</v>
       </c>
       <c r="C100">
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B101" s="2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101">
         <v>10</v>
       </c>
       <c r="C101">
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A102" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B102" s="2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102">
         <v>11</v>
       </c>
       <c r="C102">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A103" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B103" s="2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103">
         <v>12</v>
       </c>
       <c r="C103">
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A104" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B104" s="2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104">
         <v>13</v>
       </c>
       <c r="C104">
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A105" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B105" s="2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105">
         <v>14</v>
       </c>
       <c r="C105">
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A106" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B106" s="2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106">
         <v>15</v>
       </c>
       <c r="C106">
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A107" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B107" s="2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>11</v>
+      </c>
+      <c r="B107">
         <v>16</v>
       </c>
       <c r="C107">
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A108" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B108" s="2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108">
         <v>17</v>
       </c>
       <c r="C108">
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A109" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B109" s="2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109">
         <v>18</v>
       </c>
       <c r="C109">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A110" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B110" s="2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110">
         <v>19</v>
       </c>
       <c r="C110">
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A111" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B111" s="2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>11</v>
+      </c>
+      <c r="B111">
         <v>20</v>
       </c>
       <c r="C111">
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A112" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B112" s="2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>11</v>
+      </c>
+      <c r="B112">
         <v>21</v>
       </c>
       <c r="C112">
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B113" s="2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>11</v>
+      </c>
+      <c r="B113">
         <v>22</v>
       </c>
       <c r="C113">
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B114" s="2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114">
         <v>23</v>
       </c>
       <c r="C114">
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B115" s="5">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115">
         <v>24</v>
       </c>
-      <c r="C115" s="5">
+      <c r="C115">
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B116" s="5" t="s">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116" t="s">
         <v>0</v>
       </c>
-      <c r="C116" s="5">
+      <c r="C116">
         <v>24</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="D116" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B117" s="5" t="s">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" t="s">
         <v>0</v>
       </c>
-      <c r="C117" s="5">
+      <c r="C117">
         <v>26</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D117" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B118" s="3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>12</v>
+      </c>
+      <c r="B118">
         <v>1</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A119" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B119" s="3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>12</v>
+      </c>
+      <c r="B119">
         <v>2</v>
       </c>
       <c r="C119">
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A120" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B120" s="3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120">
         <v>3</v>
       </c>
       <c r="C120">
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B121" s="3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>12</v>
+      </c>
+      <c r="B121">
         <v>4</v>
       </c>
       <c r="C121">
         <v>28</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B122" s="3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>12</v>
+      </c>
+      <c r="B122">
         <v>5</v>
       </c>
       <c r="C122">
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A123" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B123" s="3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>12</v>
+      </c>
+      <c r="B123">
         <v>6</v>
       </c>
       <c r="C123">
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A124" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B124" s="3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>12</v>
+      </c>
+      <c r="B124">
         <v>7</v>
       </c>
       <c r="C124">
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A125" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B125" s="3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>12</v>
+      </c>
+      <c r="B125">
         <v>8</v>
       </c>
       <c r="C125">
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A126" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B126" s="3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>12</v>
+      </c>
+      <c r="B126">
         <v>9</v>
       </c>
       <c r="C126">
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A127" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B127" s="3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>12</v>
+      </c>
+      <c r="B127">
         <v>10</v>
       </c>
       <c r="C127">
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A128" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B128" s="3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128">
         <v>11</v>
       </c>
       <c r="C128">
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A129" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B129" s="3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129">
         <v>12</v>
       </c>
       <c r="C129">
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A130" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B130" s="3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>12</v>
+      </c>
+      <c r="B130">
         <v>13</v>
       </c>
       <c r="C130">
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A131" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B131" s="3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>12</v>
+      </c>
+      <c r="B131">
         <v>14</v>
       </c>
       <c r="C131">
         <v>30</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A132" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B132" s="3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132">
         <v>15</v>
       </c>
       <c r="C132">
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A133" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B133" s="3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133">
         <v>16</v>
       </c>
       <c r="C133">
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A134" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B134" s="3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134">
         <v>17</v>
       </c>
       <c r="C134">
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A135" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B135" s="3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>12</v>
+      </c>
+      <c r="B135">
         <v>18</v>
       </c>
       <c r="C135">
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A136" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B136" s="3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136">
         <v>19</v>
       </c>
       <c r="C136">
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A137" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B137" s="3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>12</v>
+      </c>
+      <c r="B137">
         <v>20</v>
       </c>
       <c r="C137">
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A138" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B138" s="3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138">
         <v>21</v>
       </c>
       <c r="C138">
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A139" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B139" s="3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>12</v>
+      </c>
+      <c r="B139">
         <v>22</v>
       </c>
       <c r="C139">
         <v>16</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A140" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B140" s="3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>12</v>
+      </c>
+      <c r="B140">
         <v>23</v>
       </c>
       <c r="C140">
         <v>19</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A141" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B141" s="3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141">
         <v>24</v>
       </c>
       <c r="C141">
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A142" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B142" s="3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>12</v>
+      </c>
+      <c r="B142">
         <v>25</v>
       </c>
       <c r="C142">
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A143" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B143" s="3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143">
         <v>26</v>
       </c>
       <c r="C143">
         <v>27</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A144" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B144" s="3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144">
         <v>27</v>
       </c>
       <c r="C144">
         <v>24</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A145" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B145" s="3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145">
         <v>28</v>
       </c>
       <c r="C145">
         <v>25</v>
       </c>
     </row>
-    <row r="146" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B146" s="5">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146">
         <v>29</v>
       </c>
-      <c r="C146" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B147" s="5" t="s">
+      <c r="C146">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>12</v>
+      </c>
+      <c r="B147" t="s">
         <v>0</v>
       </c>
-      <c r="C147" s="5">
+      <c r="C147">
         <v>29</v>
       </c>
-      <c r="D147" s="5" t="s">
+      <c r="D147" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A148" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B148" s="4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>6</v>
+      </c>
+      <c r="B148">
         <v>1</v>
       </c>
       <c r="C148">
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A149" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B149" s="4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>6</v>
+      </c>
+      <c r="B149">
         <v>2</v>
       </c>
       <c r="C149">
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A150" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B150" s="4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>6</v>
+      </c>
+      <c r="B150">
         <v>3</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A151" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B151" s="4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>6</v>
+      </c>
+      <c r="B151">
         <v>4</v>
       </c>
       <c r="C151">
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A152" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B152" s="4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>6</v>
+      </c>
+      <c r="B152">
         <v>5</v>
       </c>
       <c r="C152">
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A153" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B153" s="4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>6</v>
+      </c>
+      <c r="B153">
         <v>6</v>
       </c>
       <c r="C153">
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A154" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B154" s="4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>6</v>
+      </c>
+      <c r="B154">
         <v>7</v>
       </c>
       <c r="C154">
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A155" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B155" s="4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>6</v>
+      </c>
+      <c r="B155">
         <v>8</v>
       </c>
       <c r="C155">
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A156" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B156" s="4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>6</v>
+      </c>
+      <c r="B156">
         <v>9</v>
       </c>
       <c r="C156">
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A157" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B157" s="4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>6</v>
+      </c>
+      <c r="B157">
         <v>10</v>
       </c>
       <c r="C157">
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A158" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B158" s="4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>6</v>
+      </c>
+      <c r="B158">
         <v>11</v>
       </c>
       <c r="C158">
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A159" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B159" s="4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>6</v>
+      </c>
+      <c r="B159">
         <v>12</v>
       </c>
       <c r="C159">
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A160" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B160" s="4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>6</v>
+      </c>
+      <c r="B160">
         <v>13</v>
       </c>
       <c r="C160">
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A161" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B161" s="4">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>6</v>
+      </c>
+      <c r="B161">
         <v>14</v>
       </c>
       <c r="C161">
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A162" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B162" s="4">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>6</v>
+      </c>
+      <c r="B162">
         <v>15</v>
       </c>
       <c r="C162">
         <v>16</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A163" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B163" s="4">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>6</v>
+      </c>
+      <c r="B163">
         <v>16</v>
       </c>
       <c r="C163">
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A164" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B164" s="4">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>6</v>
+      </c>
+      <c r="B164">
         <v>17</v>
       </c>
       <c r="C164">
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B165" s="5">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>6</v>
+      </c>
+      <c r="B165">
         <v>18</v>
       </c>
-      <c r="C165" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A166" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B166" s="5">
+      <c r="C165">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>7</v>
+      </c>
+      <c r="B166">
         <v>1</v>
       </c>
       <c r="C166">
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A167" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B167" s="5">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>7</v>
+      </c>
+      <c r="B167">
         <v>2</v>
       </c>
-      <c r="C167" s="5">
+      <c r="C167">
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A168" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B168" s="5">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>7</v>
+      </c>
+      <c r="B168">
         <v>3</v>
       </c>
-      <c r="C168" s="5">
+      <c r="C168">
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A169" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B169" s="5">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>7</v>
+      </c>
+      <c r="B169">
         <v>4</v>
       </c>
-      <c r="C169" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A170" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B170" s="5">
+      <c r="C169">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>7</v>
+      </c>
+      <c r="B170">
         <v>5</v>
       </c>
-      <c r="C170" s="5">
+      <c r="C170">
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A171" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B171" s="5">
-        <v>6</v>
-      </c>
-      <c r="C171" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A172" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B172" s="5">
-        <v>7</v>
-      </c>
-      <c r="C172" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A173" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B173" s="5">
-        <v>8</v>
-      </c>
-      <c r="C173" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A174" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B174" s="5">
-        <v>9</v>
-      </c>
-      <c r="C174" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A175" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B175" s="5">
-        <v>10</v>
-      </c>
-      <c r="C175" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A176" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B176" s="5">
-        <v>11</v>
-      </c>
-      <c r="C176" s="5">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>7</v>
+      </c>
+      <c r="B171">
+        <v>6</v>
+      </c>
+      <c r="C171">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>7</v>
+      </c>
+      <c r="B172">
+        <v>7</v>
+      </c>
+      <c r="C172">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>7</v>
+      </c>
+      <c r="B173">
+        <v>8</v>
+      </c>
+      <c r="C173">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>7</v>
+      </c>
+      <c r="B174">
+        <v>9</v>
+      </c>
+      <c r="C174">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>7</v>
+      </c>
+      <c r="B175">
+        <v>10</v>
+      </c>
+      <c r="C175">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>7</v>
+      </c>
+      <c r="B176">
+        <v>11</v>
+      </c>
+      <c r="C176">
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A177" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B177" s="5">
-        <v>12</v>
-      </c>
-      <c r="C177" s="5">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>7</v>
+      </c>
+      <c r="B177">
+        <v>12</v>
+      </c>
+      <c r="C177">
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A178" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B178" s="5">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>7</v>
+      </c>
+      <c r="B178">
         <v>13</v>
       </c>
-      <c r="C178" s="5">
+      <c r="C178">
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A179" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B179" s="5">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>7</v>
+      </c>
+      <c r="B179">
         <v>14</v>
       </c>
-      <c r="C179" s="5">
+      <c r="C179">
         <v>16</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A180" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B180" s="5">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>7</v>
+      </c>
+      <c r="B180">
         <v>15</v>
       </c>
-      <c r="C180" s="5">
+      <c r="C180">
         <v>17</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A181" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B181" s="5">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>7</v>
+      </c>
+      <c r="B181">
         <v>16</v>
       </c>
-      <c r="C181" s="5">
+      <c r="C181">
         <v>18</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A182" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B182" s="5">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>7</v>
+      </c>
+      <c r="B182">
         <v>17</v>
       </c>
-      <c r="C182" s="5">
+      <c r="C182">
         <v>19</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A183" s="5" t="s">
-        <v>8</v>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>7</v>
       </c>
       <c r="B183" t="s">
         <v>0</v>
@@ -2502,9 +2473,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A184" s="5" t="s">
-        <v>8</v>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>7</v>
       </c>
       <c r="B184" t="s">
         <v>0</v>
